--- a/VB06_BULK_IMPORTING_T_SQL_QUERIES/DATABASE_USER_INFORMATION/DATABASE_USER_INFORMATION.xlsx
+++ b/VB06_BULK_IMPORTING_T_SQL_QUERIES/DATABASE_USER_INFORMATION/DATABASE_USER_INFORMATION.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="TB_OBJECT_USER_ID" sheetId="2" r:id="rId1"/>
-    <sheet name="TB_MA_THANH_VIEN" sheetId="4" r:id="rId2"/>
-    <sheet name="TB_AUTHORITY_DANH_SACH_QUYEN" sheetId="1" r:id="rId3"/>
+    <sheet name="TB_AUTHORITY_DANH_SACH_QUYEN" sheetId="1" r:id="rId1"/>
+    <sheet name="TB_OBJECT_USER_ID" sheetId="2" r:id="rId2"/>
+    <sheet name="TB_MA_THANH_VIEN" sheetId="4" r:id="rId3"/>
+    <sheet name="TB_MA_DATABASE" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TB_AUTHORITY_DANH_SACH_QUYEN!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TB_AUTHORITY_DANH_SACH_QUYEN!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="75">
   <si>
     <t>XOA_SUA</t>
   </si>
@@ -154,57 +155,24 @@
     <t>TEN_THANH_VIEN</t>
   </si>
   <si>
-    <t>TA Hà Nội</t>
-  </si>
-  <si>
-    <t>TA Miền Bắc</t>
-  </si>
-  <si>
-    <t>TA Ninh Bình</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>TA Nghệ An</t>
-  </si>
-  <si>
     <t>TB</t>
   </si>
   <si>
-    <t>TA Thiết Bị Điện</t>
-  </si>
-  <si>
     <t>DN</t>
   </si>
   <si>
-    <t>TA Đà Nẵng</t>
-  </si>
-  <si>
-    <t>TA Khánh Hòa</t>
-  </si>
-  <si>
     <t>DI</t>
   </si>
   <si>
-    <t>TA Đồng Nai</t>
-  </si>
-  <si>
     <t>TV</t>
   </si>
   <si>
-    <t>TA Tư Vấn - Thiết kế</t>
-  </si>
-  <si>
-    <t>TA Miền Tây</t>
-  </si>
-  <si>
     <t>MR</t>
   </si>
   <si>
-    <t>TA Minh Trí</t>
-  </si>
-  <si>
     <t>NAM_TAI_CHINH</t>
   </si>
   <si>
@@ -250,10 +218,43 @@
     <t>TVTK_2024</t>
   </si>
   <si>
-    <t>TA Long An</t>
-  </si>
-  <si>
     <t>LA_2024</t>
+  </si>
+  <si>
+    <t>Công Ty TA Hà Nội</t>
+  </si>
+  <si>
+    <t>Công Ty TA Miền Bắc</t>
+  </si>
+  <si>
+    <t>Công Ty TA Ninh Bình</t>
+  </si>
+  <si>
+    <t>Công Ty TA Nghệ An</t>
+  </si>
+  <si>
+    <t>Công Ty TA Thiết Bị Điện</t>
+  </si>
+  <si>
+    <t>Công Ty TA Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Công Ty TA Khánh Hòa</t>
+  </si>
+  <si>
+    <t>Công Ty TA Đồng Nai</t>
+  </si>
+  <si>
+    <t>Công Ty TA Tư Vấn - Thiết kế</t>
+  </si>
+  <si>
+    <t>Công Ty TA Miền Tây</t>
+  </si>
+  <si>
+    <t>Công Ty TA Minh Trí</t>
+  </si>
+  <si>
+    <t>Công Ty TA Long An</t>
   </si>
 </sst>
 </file>
@@ -612,478 +613,6 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45478.464764467593</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>123</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45478.464764467593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>123</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45478.464764467593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45478.464764467593</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2">
-        <v>2024</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45478.464764467593</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3">
-        <v>2024</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45478.464764467593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4">
-        <v>2024</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45478.464764467593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5">
-        <v>2024</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2">
-        <v>45478.464764467593</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6">
-        <v>2024</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45478.464764467593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7">
-        <v>2024</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45478.464764467593</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8">
-        <v>2024</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45478.464764467593</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9">
-        <v>2024</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>45478.464764467593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10">
-        <v>2024</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="2">
-        <v>45478.464764467593</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11">
-        <v>2024</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="2">
-        <v>45478.464764467593</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12">
-        <v>2024</v>
-      </c>
-      <c r="D12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2">
-        <v>45478.464764467593</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13">
-        <v>2024</v>
-      </c>
-      <c r="D13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2">
-        <v>45478.464764467593</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1533,4 +1062,658 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>2024</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>2024</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>2024</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>2024</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>2024</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>2024</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>2024</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>2024</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>2024</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>2024</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>2024</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>2024</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45478.464764467593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>